--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3689.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3689.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.330821874174834</v>
+        <v>3.353218793869019</v>
       </c>
       <c r="B1">
-        <v>3.033017311838749</v>
+        <v>4.555501937866211</v>
       </c>
       <c r="C1">
-        <v>8.292679205735054</v>
+        <v>2.495955467224121</v>
       </c>
       <c r="D1">
-        <v>1.91735227524228</v>
+        <v>2.288015365600586</v>
       </c>
       <c r="E1">
-        <v>1.070084556041512</v>
+        <v>1.818939805030823</v>
       </c>
     </row>
   </sheetData>
